--- a/biology/Zoologie/Cacopsylla/Cacopsylla.xlsx
+++ b/biology/Zoologie/Cacopsylla/Cacopsylla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cacopsylla, du grec kakos, « mauvais » et psulla « puce », est un genre d'insectes suceurs appartenant à la famille des Psyllidae et regroupant la majorité des psylles nuisibles aux arbres fruitiers. Il en existe une cinquantaine d'espèces ayant chacune son "hôte" privilégié.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils mesurent de 1,5 à 6 mm et ont une forme massive, ramassée ressemblant à de minuscules cigales aux antennes plus longues, à tête large avec antennes fines de 10 articles.
 Ils ont 2 lobes céphaliques saillants frontaux (cônes frontaux très développés chez le Psylle du frêne).
@@ -548,7 +562,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les larves, ovales, plates, avec des filaments de cire à l'extrémité postérieure, se développent en 5 stades, au fur et à mesure desquels le nombre des articles des antennes (2 au départ) s'accroît et les ébauches alaires deviennent de plus en plus visibles.
 Les psylles produisent un abondant miellat.
@@ -580,7 +596,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cacopsylla abdominalis
 Cacopsylla affinis
